--- a/data/trans_bre/P24_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,95</t>
+          <t>29,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,79</t>
+          <t>18,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,03</t>
+          <t>20,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>128,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>69,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>141,09%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>51,62%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48,62%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 24,84</t>
+          <t>3,58; 29,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 35,99</t>
+          <t>19,03; 41,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 27,33</t>
+          <t>9,24; 27,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 23,5</t>
+          <t>9,2; 25,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 26,77</t>
+          <t>7,49; 35,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,1; 100,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,58; 226,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,61; 94,67</t>
+          <t>9,01; 171,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 79,3</t>
+          <t>68,51; 291,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,48; 69,12</t>
+          <t>22,58; 91,5</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 86,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,23; 129,36</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,42</t>
+          <t>18,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,75</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>101,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>122,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>65,08%</t>
+          <t>99,99%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>79,96%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35,44%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,4</t>
+          <t>11,18; 25,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 21,71</t>
+          <t>8,79; 22,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 21,2</t>
+          <t>11,61; 23,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 22,29</t>
+          <t>11,75; 22,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 23,63</t>
+          <t>1,79; 18,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,98; 146,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,44; 150,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,83; 139,27</t>
+          <t>59,37; 215,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,13; 123,85</t>
+          <t>41,37; 154,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35,9; 97,73</t>
+          <t>52,86; 160,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44,72; 120,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 67,44</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>48,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38,68%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 17,37</t>
+          <t>4,15; 19,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,97</t>
+          <t>1,28; 16,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 12,89</t>
+          <t>2,97; 13,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,68</t>
+          <t>-1,44; 9,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 15,92</t>
+          <t>0,37; 14,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,2; 151,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 126,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 92,81</t>
+          <t>20,09; 168,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 47,83</t>
+          <t>4,52; 112,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 109,9</t>
+          <t>13,65; 102,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 48,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 87,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,42</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,78</t>
+          <t>16,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>16,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>101,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>88,98%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>66,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 18,52</t>
+          <t>10,97; 19,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,64</t>
+          <t>10,03; 21,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 18,32</t>
+          <t>8,89; 23,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,57</t>
+          <t>7,66; 23,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,76; 115,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>68,71; 135,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,9; 96,91</t>
+          <t>55,81; 125,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,49; 74,51</t>
+          <t>46,34; 163,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,44; 77,98</t>
+          <t>37,2; 157,25</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>26,37; 112,68</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,32</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,66</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,65</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,88</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>75,73%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>54,39%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51,04%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11,79; 18,31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 20,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,89; 19,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 17,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 18,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 116,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>65,33; 128,96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51,08; 100,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>34,77; 76,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>31,49; 77,03</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
